--- a/Input/dap/dap_oPt_preliminary.xlsx
+++ b/Input/dap/dap_oPt_preliminary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbally/Documents/WORK/REACH2021/5. Data Analysis/oPt_MSNA_Analysis/Input/dap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelyn GAKINYA\Documents\GitHub\oPt_MSNA_Analysis\Input\dap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{657BA7D6-15D2-3D44-8427-F25DB40ADC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="22240" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1560" yWindow="456" windowWidth="22236" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2040,7 +2039,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2108,15 +2107,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2328,31 +2327,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C339" sqref="C339"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2381,17 +2380,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2408,17 +2407,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2435,17 +2434,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2462,17 +2461,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2489,17 +2488,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -3036,7 +3035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
@@ -3218,7 +3217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>50</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>135</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>135</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>135</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>135</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>135</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>135</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>135</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>135</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>135</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>135</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>135</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>135</v>
       </c>
@@ -4183,14 +4182,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -4209,7 +4208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>135</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>135</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>135</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>135</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>135</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>135</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>135</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>180</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>180</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>180</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>187</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>187</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>187</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>187</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>187</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>187</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>187</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>187</v>
       </c>
@@ -4703,14 +4702,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -4729,7 +4728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>180</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>180</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>180</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>180</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>180</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>180</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>180</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>180</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>180</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>180</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>180</v>
       </c>
@@ -5015,7 +5014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>180</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>180</v>
       </c>
@@ -5067,7 +5066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>180</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>180</v>
       </c>
@@ -5119,7 +5118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>180</v>
       </c>
@@ -5145,7 +5144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>238</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>238</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>238</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>245</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>245</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>245</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>245</v>
       </c>
@@ -5327,14 +5326,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="7" t="s">
         <v>255</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -5353,7 +5352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>245</v>
       </c>
@@ -5379,7 +5378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>245</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>245</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>245</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>245</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>245</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>245</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>245</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>245</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>245</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>245</v>
       </c>
@@ -5639,14 +5638,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="7" t="s">
         <v>161</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -5665,7 +5664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>238</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>245</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>245</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>245</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>245</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>245</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>245</v>
       </c>
@@ -5847,7 +5846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>245</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>245</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>245</v>
       </c>
@@ -5925,7 +5924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>245</v>
       </c>
@@ -5951,7 +5950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>245</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>245</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>245</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>245</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>245</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>245</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>245</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>245</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>245</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>245</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>245</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>245</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>245</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>245</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>245</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>245</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>245</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>245</v>
       </c>
@@ -6419,7 +6418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>340</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>340</v>
       </c>
@@ -6471,7 +6470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>340</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>340</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>340</v>
       </c>
@@ -6549,7 +6548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>340</v>
       </c>
@@ -6575,7 +6574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>340</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>355</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>355</v>
       </c>
@@ -6653,7 +6652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>355</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>355</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>355</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>355</v>
       </c>
@@ -6757,7 +6756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>355</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>355</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>355</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>355</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>355</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>355</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>355</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>355</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>355</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>355</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>355</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>355</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>355</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>355</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>340</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>355</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>355</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>355</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>355</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>355</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>355</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>355</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>355</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>355</v>
       </c>
@@ -7381,7 +7380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>355</v>
       </c>
@@ -7407,7 +7406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>355</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>355</v>
       </c>
@@ -7459,7 +7458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>355</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>355</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>355</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>355</v>
       </c>
@@ -7563,7 +7562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>355</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>355</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>355</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>355</v>
       </c>
@@ -7667,7 +7666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>355</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>355</v>
       </c>
@@ -7719,7 +7718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>355</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>355</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>355</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>355</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>355</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>355</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>355</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>355</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>355</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>355</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>355</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>355</v>
       </c>
@@ -8031,7 +8030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>355</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>355</v>
       </c>
@@ -8083,7 +8082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>355</v>
       </c>
@@ -8109,7 +8108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>355</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>355</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>355</v>
       </c>
@@ -8187,7 +8186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>355</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>355</v>
       </c>
@@ -8239,7 +8238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>355</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>355</v>
       </c>
@@ -8291,7 +8290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>355</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>355</v>
       </c>
@@ -8343,7 +8342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>355</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>355</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>355</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>355</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>355</v>
       </c>
@@ -8473,7 +8472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>355</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>355</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>355</v>
       </c>
@@ -8551,7 +8550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>355</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>355</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>355</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>355</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>355</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>355</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>355</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>355</v>
       </c>
@@ -8759,7 +8758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>355</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>482</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>482</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>482</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>482</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>482</v>
       </c>
@@ -8915,7 +8914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>482</v>
       </c>
@@ -8941,7 +8940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>482</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>482</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>482</v>
       </c>
@@ -9019,7 +9018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>482</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>482</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>482</v>
       </c>
@@ -9097,7 +9096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>482</v>
       </c>
@@ -9123,7 +9122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>482</v>
       </c>
@@ -9149,7 +9148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>482</v>
       </c>
@@ -9175,7 +9174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>482</v>
       </c>
@@ -9201,7 +9200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>482</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>482</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>482</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>482</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>482</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>482</v>
       </c>
@@ -9357,7 +9356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>482</v>
       </c>
@@ -9383,7 +9382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>482</v>
       </c>
@@ -9409,7 +9408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>482</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>533</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>533</v>
       </c>
@@ -9487,7 +9486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>533</v>
       </c>
@@ -9513,7 +9512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>533</v>
       </c>
@@ -9539,7 +9538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>533</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>533</v>
       </c>
@@ -9591,7 +9590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>533</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>533</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>533</v>
       </c>
@@ -9669,7 +9668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>552</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>482</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>482</v>
       </c>
@@ -9747,7 +9746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>482</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>482</v>
       </c>
@@ -9799,7 +9798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>563</v>
       </c>
@@ -9825,7 +9824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>563</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>563</v>
       </c>
@@ -9877,7 +9876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>563</v>
       </c>
@@ -9903,7 +9902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>563</v>
       </c>
@@ -9929,7 +9928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>563</v>
       </c>
@@ -9955,7 +9954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>577</v>
       </c>
@@ -9981,7 +9980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>577</v>
       </c>
@@ -10007,7 +10006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>582</v>
       </c>
@@ -10033,7 +10032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>577</v>
       </c>
@@ -10059,7 +10058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>577</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>577</v>
       </c>
@@ -10111,7 +10110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>582</v>
       </c>
@@ -10137,7 +10136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>593</v>
       </c>
@@ -10163,7 +10162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>596</v>
       </c>
@@ -10189,7 +10188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>599</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>599</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>599</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>238</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>238</v>
       </c>
@@ -10319,7 +10318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>610</v>
       </c>
@@ -10345,7 +10344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>610</v>
       </c>
@@ -10371,7 +10370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>610</v>
       </c>
@@ -10397,7 +10396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>610</v>
       </c>
@@ -10423,7 +10422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>610</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>610</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>610</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>610</v>
       </c>
@@ -10527,7 +10526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>610</v>
       </c>
@@ -10553,7 +10552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>610</v>
       </c>
@@ -10579,7 +10578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>610</v>
       </c>
@@ -10605,7 +10604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>610</v>
       </c>
@@ -10631,7 +10630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>610</v>
       </c>
@@ -10657,7 +10656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>610</v>
       </c>
@@ -10683,7 +10682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>610</v>
       </c>
@@ -10709,7 +10708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>610</v>
       </c>
@@ -10735,7 +10734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>610</v>
       </c>
@@ -10761,7 +10760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>610</v>
       </c>
@@ -10787,7 +10786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>610</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>610</v>
       </c>
@@ -10839,7 +10838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>610</v>
       </c>
@@ -10865,7 +10864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>610</v>
       </c>
@@ -10891,7 +10890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>610</v>
       </c>
@@ -10917,7 +10916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>610</v>
       </c>
@@ -10943,7 +10942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>610</v>
       </c>
@@ -10969,7 +10968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>610</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>610</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>610</v>
       </c>
